--- a/service-system/src/main/resources/static/沥青路面压实度-第二版.xlsx
+++ b/service-system/src/main/resources/static/沥青路面压实度-第二版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9397A684-BE57-42AF-B6DA-172EEE172AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DD72E0-2B34-40B0-B002-1199DE1949FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="913" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="913" firstSheet="6" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="保证率系数" sheetId="11" state="hidden" r:id="rId1"/>
@@ -5618,7 +5618,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6140,8 +6140,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6152,7 +6151,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6674,8 +6673,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -6686,7 +6684,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:O3"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7208,8 +7206,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7220,7 +7217,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7742,8 +7739,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -7754,7 +7750,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8276,8 +8272,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -8287,8 +8282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8810,8 +8805,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -9477,8 +9471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10000,8 +9994,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -10012,7 +10005,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10534,8 +10527,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -10546,7 +10538,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11068,8 +11060,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -11080,7 +11071,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11602,8 +11593,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -11614,7 +11604,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12136,8 +12126,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -12148,7 +12137,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12670,8 +12659,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -12682,7 +12670,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13204,8 +13192,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -13216,7 +13203,7 @@
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13738,8 +13725,7 @@
   <pageMargins left="0.98425196850393704" right="0.78740157480314998" top="0.78740157480314998" bottom="0.98425196850393704" header="0.47244094488188998" footer="0.59055118110236204"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
-    <oddFooter>&amp;C检测：                                                            复核：</oddFooter>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
